--- a/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,567 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r496862930-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109309</t>
+  </si>
+  <si>
+    <t>496862930</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Save yourself the money</t>
+  </si>
+  <si>
+    <t>The stay was horrible. They had no extra pillows or blankets. The guy that was serving the so called breakfast was barefoot. As well as the guy behind the counter. It was an overall horrible stay.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r492214679-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>492214679</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!</t>
+  </si>
+  <si>
+    <t>We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was...We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was working he asked if it had come on.  Guess A/C on or off is controlled from the reception area.  And to save $$ they shut it off when they believe no one is in the room, even if it is a booked room.  If the Wyndham/Super 8 chain can remove a business from there rolls I would recommend that this place be removed, it left a terrible impression of both the hotel &amp; the affiliated chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was...We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was working he asked if it had come on.  Guess A/C on or off is controlled from the reception area.  And to save $$ they shut it off when they believe no one is in the room, even if it is a booked room.  If the Wyndham/Super 8 chain can remove a business from there rolls I would recommend that this place be removed, it left a terrible impression of both the hotel &amp; the affiliated chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r479818777-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>479818777</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>I don't do reviews.</t>
+  </si>
+  <si>
+    <t>Location is convenient to my daughter's residence; I stay her whenever I come to visit. Traffic flow makes it difficult to reach the freeway from the hotel, and to access the convenience store/gas station across the street.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r454736390-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>454736390</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Great hotel clean rooms, staff members where nice &amp; helpfull,  one's again thank you for your kindness God bless</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r452311969-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>452311969</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r437519557-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>437519557</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r428297257-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>428297257</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>i really wish i could rate this place lower</t>
+  </si>
+  <si>
+    <t>horrifically bad experience, toilets did not work, shower was broken, AC unit was louder than that jets overhead.  indifferent attitude from the hotel staff , i called and said the toilet was broken and they replied "what do you want me to do about it?"  unbelievably bad service.  place smelled and was dirty.  AVOID AT ALL COSTS</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r414058610-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414058610</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Does Super 8 actually inspect these locations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a mess! They shut off the electricity during the day to "save electricity". They did t realize that I was still sleeping and they shut off power to the air conditioning. I had to call them to find out what happened and they turned it back on. I came back to the hotel after my meetings the next day to find the food that I had in the fridge hot due to, once again, turning off power.  If they are more concerned with the electric bill than customer satisfaction; maybe you need to look for another service industry. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r391799071-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>391799071</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Unbelievable</t>
+  </si>
+  <si>
+    <t>I reserved and rented my room for two nights, after the first night at 10 am they cut off my air conditioner from the main office and turned off my room keys.  When I called about the A/C the cut it back but not the point. Check out isn't untill 11 a.m.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r352848186-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>352848186</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Nasty - will not stay here again</t>
+  </si>
+  <si>
+    <t>First , the room had a bad odor.. yes it was a smoking room, but it had that "air freshener" to mask the poop smell.  3 out of 4 pillows not only had stains, but had sticky substance on them. A comforter , we could tell had not even been changed because it had "sticky white" substance on it in several spots, along with a cut up straw. I could not get ahold of the manager, and had to contact Wyndham's 800 # just to get the manager who lived at the hotel to do anything about it. The breakfast was horrible, snack cakes and stale cereal, no juice, no coffee when I went at 8 am either. Each time I went to the office I was starred at as if I was in the wrong place.  My son and I were there for sports, and if  I could have found another hotel with an opening and could have got my money back, we would have left before unpacking! Will never stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>First , the room had a bad odor.. yes it was a smoking room, but it had that "air freshener" to mask the poop smell.  3 out of 4 pillows not only had stains, but had sticky substance on them. A comforter , we could tell had not even been changed because it had "sticky white" substance on it in several spots, along with a cut up straw. I could not get ahold of the manager, and had to contact Wyndham's 800 # just to get the manager who lived at the hotel to do anything about it. The breakfast was horrible, snack cakes and stale cereal, no juice, no coffee when I went at 8 am either. Each time I went to the office I was starred at as if I was in the wrong place.  My son and I were there for sports, and if  I could have found another hotel with an opening and could have got my money back, we would have left before unpacking! Will never stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r341196599-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>341196599</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r325353292-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>325353292</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r316695488-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316695488</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Room smelled like mildew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room had a strong mildew odor.  Waiting to great me was a cricket in my bed.  Sheets were itchy and overall didn't feel clean.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r309662270-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>309662270</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>No hot water. Broken AC.</t>
+  </si>
+  <si>
+    <t>Had to take a freezing shower. The AC malfunctioned and would only blow freezing cold air even when set to fan only and the temp set to hot. I did not sleep well because I woke up often turning it on and off.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r308544010-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>308544010</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r267855452-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>267855452</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Not worth your money!</t>
+  </si>
+  <si>
+    <t>My husband and I needed a place to stay for the night passing through Dallas, TX. The staff would speak amongst themselves in their own language whenever we asked a question. When i asked how much a room was, the owners seemed to argue in their own language on how much to charge me. There was no sense of professionalism or care for the quality of their business.  The outside is not well maintained and the indoors are not much better either. First room that was given had broken A/C. We asked to be changed into another room and a member of the staff was helpful.  Understanding that this is a franchise, other Super 8's have not been so unkept and un maintained. I personally think $80 for one night in a hotel with wallpaper cracking from the walls and some kind of brown mold coming from it is not worth your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My husband and I needed a place to stay for the night passing through Dallas, TX. The staff would speak amongst themselves in their own language whenever we asked a question. When i asked how much a room was, the owners seemed to argue in their own language on how much to charge me. There was no sense of professionalism or care for the quality of their business.  The outside is not well maintained and the indoors are not much better either. First room that was given had broken A/C. We asked to be changed into another room and a member of the staff was helpful.  Understanding that this is a franchise, other Super 8's have not been so unkept and un maintained. I personally think $80 for one night in a hotel with wallpaper cracking from the walls and some kind of brown mold coming from it is not worth your money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234796516-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234796516</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>it was the pitts!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torn and cracked wallpaper, filthy floors and carpet, apparent mold in bath, no remote for TV, no checkin forms. I could go on. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234006236-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234006236</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Bug in Tub. Wall paper had water stains</t>
+  </si>
+  <si>
+    <t>Ok, It was late. I needed to stop and super 8 is not an expensive hotel. I did not expect any frills but I did expect it to be clean and safe. Felt safe inspite of the peep holes having paper stuffed in them. bedding was clean , surfaces were clean, but found a bug in the tub. Killed it and went on. Wall paper showed signs in several places of water damage. Did see something that did not look normal. High up on the wall there was a switch plate cover, with a grate cut into it. Took the stand lamp and stacked it on top of a chair and put a garbage can on top of that to cover it up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok, It was late. I needed to stop and super 8 is not an expensive hotel. I did not expect any frills but I did expect it to be clean and safe. Felt safe inspite of the peep holes having paper stuffed in them. bedding was clean , surfaces were clean, but found a bug in the tub. Killed it and went on. Wall paper showed signs in several places of water damage. Did see something that did not look normal. High up on the wall there was a switch plate cover, with a grate cut into it. Took the stand lamp and stacked it on top of a chair and put a garbage can on top of that to cover it up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r215623443-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>215623443</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r213924011-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>213924011</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Good AC and Bath</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel was the AC and the bathroom.  The front end staff was rude when I requested a down stairs room, I walk with a cane, they gave me a handicap room.  The room had a musty un- ventilated smell.  The towels were small and not soft at all. The breakfast was basically non-existent and they didn't even have lids for the coffee. They say pet friendly but don't tell you you have to pay extra for a pet.  Maids only checked room once so we never had our room cleaned, we didn't leave till 2:30 in the afternoon. The bathroom was nice, looks like it has been remodeled recently and the AC was plenty cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel was the AC and the bathroom.  The front end staff was rude when I requested a down stairs room, I walk with a cane, they gave me a handicap room.  The room had a musty un- ventilated smell.  The towels were small and not soft at all. The breakfast was basically non-existent and they didn't even have lids for the coffee. They say pet friendly but don't tell you you have to pay extra for a pet.  Maids only checked room once so we never had our room cleaned, we didn't leave till 2:30 in the afternoon. The bathroom was nice, looks like it has been remodeled recently and the AC was plenty cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r209817561-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>209817561</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>NASTY</t>
+  </si>
+  <si>
+    <t>Very filthy, poor service.  this stay was horrible, so bad I contacted Wyndham properties and told them they needed to do a spot inspection since they let this owner fly their properties flag.  carpet was so dirty, I had to buy house shoes to be able to walk in the room each morning.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r196702581-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>196702581</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r189281169-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>189281169</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Horrible customer service!</t>
+  </si>
+  <si>
+    <t>I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I...I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I said yes, then she said checkout is at 11 and hangs up after I tell her I know.  There was no good morning or goodbye in this conversation.  Did she think I needed a 2 hour wake up call?  After that I got up, got ready, and left.  When turning in the key the manager was on the phone and I tried to discuss what had happened, but he walked away.  Obviously his phone conversation was much more interesting than an upset customer.  The nice female desk clerk explained that was probably the manager's wife that was so disrespectful to me on the phone.  I drive this route at least 8 - 10 times a year and will NEVER stay here again even if I am deathly sick and I advise no one else to.  Trust this review that this hotel is in disarray, and they obviously do not care about their customers gauging from the horrible customer service I received from the manager's wife.  In this day and age, kindness and courteous go a long way and this hotel has a lot to learn.  There are many other hotels in this area that know how to treat their customers and want your business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I...I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I said yes, then she said checkout is at 11 and hangs up after I tell her I know.  There was no good morning or goodbye in this conversation.  Did she think I needed a 2 hour wake up call?  After that I got up, got ready, and left.  When turning in the key the manager was on the phone and I tried to discuss what had happened, but he walked away.  Obviously his phone conversation was much more interesting than an upset customer.  The nice female desk clerk explained that was probably the manager's wife that was so disrespectful to me on the phone.  I drive this route at least 8 - 10 times a year and will NEVER stay here again even if I am deathly sick and I advise no one else to.  Trust this review that this hotel is in disarray, and they obviously do not care about their customers gauging from the horrible customer service I received from the manager's wife.  In this day and age, kindness and courteous go a long way and this hotel has a lot to learn.  There are many other hotels in this area that know how to treat their customers and want your business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r181188719-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>181188719</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Customer service was great, enjoyed the location of the...</t>
+  </si>
+  <si>
+    <t>Customer service was great, enjoyed the location of the hotel from the cotton bowl. Great local restaurants, and area was very quiet and safe.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r165125733-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>165125733</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r158682500-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>158682500</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r157240013-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157240013</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>1 more year, then upgrades!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the beds are a lil firm. it is close to amenities. service is good. there is a lot of traffic going through the hotel thruway. they do have security. breakfast could be improved. wish that they had an excercise room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r142429525-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142429525</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r136419308-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>136419308</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Stay Away "Disgusting Place"</t>
+  </si>
+  <si>
+    <t>Holes in the walls, door handle fell off on the inside could not get the door open. Toliet wasn't working call the front desk to inform them, they told me to come get a plunger... And, hurry up and return it someone else may need to use it. Stay away from this hell hole!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r124318350-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>124318350</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>This place has horrible service! The lock on the door was  broken, we were put in a smoking room when we requested a non-smoking room. Terrible service. The manager is rude. Run far away from this place. It's not worth it!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r16357006-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>16357006</t>
+  </si>
+  <si>
+    <t>05/23/2008</t>
+  </si>
+  <si>
+    <t>so-so</t>
+  </si>
+  <si>
+    <t>It was too high but maybe that's the going rate for motels these days.I got an upstairs room because upper levels are usually the cleaner, less-used rooms. There are cameras everywhere but the area isn't probably the greatest in the world.  It wasn't terribly unsafe but I've stayed at motels that I felt were much more secure than this one.The ice machine on the ground floor was not working.  Other than that, no real complaints.  I only stayed there one night.Bed was average, not great not terrible.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r14199071-Super_8_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>14199071</t>
+  </si>
+  <si>
+    <t>03/10/2008</t>
+  </si>
+  <si>
+    <t>Severe problems</t>
+  </si>
+  <si>
+    <t>I always stay at Super 8 when traveling, so I know the quality of Super 8 you should expect. I love Super 8's and have never had a bad experience until now. 
+Here's my experience, factually:
+- We stepped into the room, and the hotel room was the same temperature as it was outside. The management turns off the a/c and heat when no one is using the room. So the room was 45 degrees when we arrived. 
+- We cranked up the heat. The unit in the window was very cheap so it never got above 60 degrees in the room. Ver uncomfortable.
+- I tried to take a shower. The shower was a maximum 90 degrees or so. It never really got "hot", just very lukewarm. I couldn't stay in the shower for more than 5 minutes due to the coldness of the room and the coldness of the shower. I had it turned ALL the way on for at least 15 mins tryng to get hot water. Never quite worked. 
+- Tried to get the network working. They had the router connected but no internet service. I called down to the desk and they literally told me that "they didn't know how to fix it" and that I was out of luck.
+- The bed was comfortable. No visible stains. However they did not tuck in the bottom sheet (they didn't have fitted sheets) so we ended...I always stay at Super 8 when traveling, so I know the quality of Super 8 you should expect. I love Super 8's and have never had a bad experience until now. Here's my experience, factually:- We stepped into the room, and the hotel room was the same temperature as it was outside. The management turns off the a/c and heat when no one is using the room. So the room was 45 degrees when we arrived. - We cranked up the heat. The unit in the window was very cheap so it never got above 60 degrees in the room. Ver uncomfortable.- I tried to take a shower. The shower was a maximum 90 degrees or so. It never really got "hot", just very lukewarm. I couldn't stay in the shower for more than 5 minutes due to the coldness of the room and the coldness of the shower. I had it turned ALL the way on for at least 15 mins tryng to get hot water. Never quite worked. - Tried to get the network working. They had the router connected but no internet service. I called down to the desk and they literally told me that "they didn't know how to fix it" and that I was out of luck.- The bed was comfortable. No visible stains. However they did not tuck in the bottom sheet (they didn't have fitted sheets) so we ended up sleeping on the matress as we tossed and turned at night. - Someone broke glass and ice down the center of the stairway. They did not clean it up and it was a definite safety hazard. - A baby cockroach crawled out of the alarm clock in the morning. - The microwave and fridge did work quite well. - They said that they do not accept pets. Every website and even the Super 8 catalogue says they accept pets. So don't take your pets there because they have not updated their advertising. They DO NOT accept pets. Overall this was the worst quality hotel I've ever stayed at.  I will NOT stay here again. The only thing that worked was the microwave, fridge and TV. The beds were clean. But they cut corners to save money and it made the room very uncomfortable. We almost went to sleep in our car for heat because the room was so cold. It was a bad experience overall and do not recommend it. Stay at your own risk!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I always stay at Super 8 when traveling, so I know the quality of Super 8 you should expect. I love Super 8's and have never had a bad experience until now. 
+Here's my experience, factually:
+- We stepped into the room, and the hotel room was the same temperature as it was outside. The management turns off the a/c and heat when no one is using the room. So the room was 45 degrees when we arrived. 
+- We cranked up the heat. The unit in the window was very cheap so it never got above 60 degrees in the room. Ver uncomfortable.
+- I tried to take a shower. The shower was a maximum 90 degrees or so. It never really got "hot", just very lukewarm. I couldn't stay in the shower for more than 5 minutes due to the coldness of the room and the coldness of the shower. I had it turned ALL the way on for at least 15 mins tryng to get hot water. Never quite worked. 
+- Tried to get the network working. They had the router connected but no internet service. I called down to the desk and they literally told me that "they didn't know how to fix it" and that I was out of luck.
+- The bed was comfortable. No visible stains. However they did not tuck in the bottom sheet (they didn't have fitted sheets) so we ended...I always stay at Super 8 when traveling, so I know the quality of Super 8 you should expect. I love Super 8's and have never had a bad experience until now. Here's my experience, factually:- We stepped into the room, and the hotel room was the same temperature as it was outside. The management turns off the a/c and heat when no one is using the room. So the room was 45 degrees when we arrived. - We cranked up the heat. The unit in the window was very cheap so it never got above 60 degrees in the room. Ver uncomfortable.- I tried to take a shower. The shower was a maximum 90 degrees or so. It never really got "hot", just very lukewarm. I couldn't stay in the shower for more than 5 minutes due to the coldness of the room and the coldness of the shower. I had it turned ALL the way on for at least 15 mins tryng to get hot water. Never quite worked. - Tried to get the network working. They had the router connected but no internet service. I called down to the desk and they literally told me that "they didn't know how to fix it" and that I was out of luck.- The bed was comfortable. No visible stains. However they did not tuck in the bottom sheet (they didn't have fitted sheets) so we ended up sleeping on the matress as we tossed and turned at night. - Someone broke glass and ice down the center of the stairway. They did not clean it up and it was a definite safety hazard. - A baby cockroach crawled out of the alarm clock in the morning. - The microwave and fridge did work quite well. - They said that they do not accept pets. Every website and even the Super 8 catalogue says they accept pets. So don't take your pets there because they have not updated their advertising. They DO NOT accept pets. Overall this was the worst quality hotel I've ever stayed at.  I will NOT stay here again. The only thing that worked was the microwave, fridge and TV. The beds were clean. But they cut corners to save money and it made the room very uncomfortable. We almost went to sleep in our car for heat because the room was so cold. It was a bad experience overall and do not recommend it. Stay at your own risk!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1206,2054 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>201</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" t="s">
+        <v>223</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>255shakaylaf</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Patti C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r492214679-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was...We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was working he asked if it had come on.  Guess A/C on or off is controlled from the reception area.  And to save $$ they shut it off when they believe no one is in the room, even if it is a booked room.  If the Wyndham/Super 8 chain can remove a business from there rolls I would recommend that this place be removed, it left a terrible impression of both the hotel &amp; the affiliated chain.More</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r479818777-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>B5977QCjuans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r454736390-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Angela P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r452311969-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>01/16/2017</t>
   </si>
   <si>
+    <t>Y9259JYchrisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r437519557-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>SoCalRoadMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r428297257-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>trebor_skraps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r414058610-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Dale7137</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r391799071-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Jon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r352848186-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t>First , the room had a bad odor.. yes it was a smoking room, but it had that "air freshener" to mask the poop smell.  3 out of 4 pillows not only had stains, but had sticky substance on them. A comforter , we could tell had not even been changed because it had "sticky white" substance on it in several spots, along with a cut up straw. I could not get ahold of the manager, and had to contact Wyndham's 800 # just to get the manager who lived at the hotel to do anything about it. The breakfast was horrible, snack cakes and stale cereal, no juice, no coffee when I went at 8 am either. Each time I went to the office I was starred at as if I was in the wrong place.  My son and I were there for sports, and if  I could have found another hotel with an opening and could have got my money back, we would have left before unpacking! Will never stay here again! More</t>
   </si>
   <si>
+    <t>sing4Jesus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r341196599-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r325353292-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>128jille</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r316695488-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kevincP6373HH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r309662270-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,6 +447,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Christine F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r308544010-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,6 +459,9 @@
     <t>09/09/2015</t>
   </si>
   <si>
+    <t>Krystal G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r267855452-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +483,9 @@
     <t>My husband and I needed a place to stay for the night passing through Dallas, TX. The staff would speak amongst themselves in their own language whenever we asked a question. When i asked how much a room was, the owners seemed to argue in their own language on how much to charge me. There was no sense of professionalism or care for the quality of their business.  The outside is not well maintained and the indoors are not much better either. First room that was given had broken A/C. We asked to be changed into another room and a member of the staff was helpful.  Understanding that this is a franchise, other Super 8's have not been so unkept and un maintained. I personally think $80 for one night in a hotel with wallpaper cracking from the walls and some kind of brown mold coming from it is not worth your money.More</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234796516-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +504,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234006236-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>Ok, It was late. I needed to stop and super 8 is not an expensive hotel. I did not expect any frills but I did expect it to be clean and safe. Felt safe inspite of the peep holes having paper stuffed in them. bedding was clean , surfaces were clean, but found a bug in the tub. Killed it and went on. Wall paper showed signs in several places of water damage. Did see something that did not look normal. High up on the wall there was a switch plate cover, with a grate cut into it. Took the stand lamp and stacked it on top of a chair and put a garbage can on top of that to cover it up.More</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r215623443-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -483,6 +540,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>PaulaCC0987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r213924011-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +564,9 @@
     <t>The only good thing about this hotel was the AC and the bathroom.  The front end staff was rude when I requested a down stairs room, I walk with a cane, they gave me a handicap room.  The room had a musty un- ventilated smell.  The towels were small and not soft at all. The breakfast was basically non-existent and they didn't even have lids for the coffee. They say pet friendly but don't tell you you have to pay extra for a pet.  Maids only checked room once so we never had our room cleaned, we didn't leave till 2:30 in the afternoon. The bathroom was nice, looks like it has been remodeled recently and the AC was plenty cold.More</t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r209817561-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +585,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Rasheedah J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r196702581-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,6 +600,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>JWeaverDale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r189281169-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +624,9 @@
     <t>I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I...I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I said yes, then she said checkout is at 11 and hangs up after I tell her I know.  There was no good morning or goodbye in this conversation.  Did she think I needed a 2 hour wake up call?  After that I got up, got ready, and left.  When turning in the key the manager was on the phone and I tried to discuss what had happened, but he walked away.  Obviously his phone conversation was much more interesting than an upset customer.  The nice female desk clerk explained that was probably the manager's wife that was so disrespectful to me on the phone.  I drive this route at least 8 - 10 times a year and will NEVER stay here again even if I am deathly sick and I advise no one else to.  Trust this review that this hotel is in disarray, and they obviously do not care about their customers gauging from the horrible customer service I received from the manager's wife.  In this day and age, kindness and courteous go a long way and this hotel has a lot to learn.  There are many other hotels in this area that know how to treat their customers and want your business.More</t>
   </si>
   <si>
+    <t>Willie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r181188719-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,6 +645,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>John Dehart D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r165125733-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -585,6 +660,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Sonia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r158682500-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,6 +675,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Todd S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r157240013-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -624,6 +705,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>BDHMC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r136419308-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,6 +723,9 @@
     <t>Holes in the walls, door handle fell off on the inside could not get the door open. Toliet wasn't working call the front desk to inform them, they told me to come get a plunger... And, hurry up and return it someone else may need to use it. Stay away from this hell hole!</t>
   </si>
   <si>
+    <t>dazzlermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r124318350-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +744,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>miche</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r16357006-Super_8_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -673,6 +763,9 @@
   </si>
   <si>
     <t>May 2008</t>
+  </si>
+  <si>
+    <t>ihatepushups</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r14199071-Super_8_Dallas_South-Dallas_Texas.html</t>
@@ -1210,43 +1303,47 @@
       <c r="A2" t="n">
         <v>34017</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1270,50 +1367,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34017</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>15798</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1331,50 +1432,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34017</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1398,50 +1503,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34017</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178574</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1465,35 +1574,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34017</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>33557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1501,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1525,36 +1638,37 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34017</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178575</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1562,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1586,51 +1700,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34017</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1648,50 +1763,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34017</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178577</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1705,50 +1824,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34017</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178578</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1772,50 +1895,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34017</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>31634</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1839,48 +1966,52 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34017</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178579</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1904,35 +2035,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34017</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1940,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1964,51 +2099,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34017</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178580</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2032,50 +2168,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34017</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178581</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2099,35 +2239,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34017</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>27735</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2135,10 +2279,10 @@
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2159,51 +2303,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34017</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178582</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2217,50 +2362,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34017</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2284,50 +2433,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34017</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2351,48 +2504,52 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34017</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2416,50 +2573,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34017</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2483,50 +2644,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34017</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>677</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2548,35 +2713,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34017</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178584</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2584,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2608,51 +2777,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34017</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178585</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2676,50 +2846,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34017</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>34946</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2743,35 +2917,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34017</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178586</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -2779,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2803,36 +2981,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34017</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>100366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -2840,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -2864,42 +3043,43 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34017</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>14728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -2928,35 +3108,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34017</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -2964,10 +3148,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -2988,42 +3172,43 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34017</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178587</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -3052,50 +3237,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34017</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178588</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3119,50 +3308,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34017</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178589</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3184,50 +3377,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34017</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178590</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3251,7 +3448,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_730.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>255shakaylaf</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r496862930-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r589448790-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>55711</t>
@@ -162,6 +159,72 @@
     <t>109309</t>
   </si>
   <si>
+    <t>589448790</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Horrible, Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>This place was horrible. I choose it due to its' proximity to a business meeting, however in the future I would rather drive in rush hour traffic than stay here. The room was filthy, the bedspread had stains and appeared to have not been washed...EVER, there was no breakfast due to "problems" (never got a specific answer), the bathtub had no drain plug, the fixtures were loose and just spun on the wall, and the hair dryer wall connector was cracked exposing the interior wires but still plugged in for your use. I won't even get into how bad the carpeting was and why I did not even think about taking off my shoes until I went to bed. Just a really horrible hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This place was horrible. I choose it due to its' proximity to a business meeting, however in the future I would rather drive in rush hour traffic than stay here. The room was filthy, the bedspread had stains and appeared to have not been washed...EVER, there was no breakfast due to "problems" (never got a specific answer), the bathtub had no drain plug, the fixtures were loose and just spun on the wall, and the hair dryer wall connector was cracked exposing the interior wires but still plugged in for your use. I won't even get into how bad the carpeting was and why I did not even think about taking off my shoes until I went to bed. Just a really horrible hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r525159352-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>525159352</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>WORST HOTEL ON OUR RECENT VACATION !!!!</t>
+  </si>
+  <si>
+    <t>The morning of checkout the lobby had no lights on. The attendant who was sitting the lobby had no shoes on and put on the lights and put them out when we left. No one else was in the lobby. There was hardly anything for breakfast, no juice,one pot of coffee with no lids for the cups. We had to ask for our receipt of which they had trouble finding. We went to McDonalds for breakfast. This was by far the worst Super 8 we had ever attended. We usually try to stay at a Wyndham hotel group.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r497387772-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>497387772</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>please don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not check in when I got there told me I had to wait 2 hr then I waited get my room get ac didn't work room isn't worth use points or money </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r496862930-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
     <t>496862930</t>
   </si>
   <si>
@@ -174,16 +237,10 @@
     <t>The stay was horrible. They had no extra pillows or blankets. The guy that was serving the so called breakfast was barefoot. As well as the guy behind the counter. It was an overall horrible stay.</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Patti C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r492214679-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r492214679-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>492214679</t>
@@ -201,16 +258,10 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was...We were going to the Scarbrough Faire and wanted a place fairly close, all those were taken so we booked here.  The furniture looked like it came from a poor second-hand store &amp; wasn't refinished.  Stains on the bedcovers and on the chairs at the small table.  We had to have our keycards refreshed for the second day.  I was told they do that rather then for the full time booked.  The bathroom light didn't light, called the front desk &amp; when the employee showed he reached to the ceiling &amp; tapped the light cover, it came on.  Later the same evening after returning from supper, same thing happened.  This time the employee, a different person, came in and after tapping the cover had to go back to get a new lightbulb.  As for the free breakfast, what a joke, some dry cereals, no milk, pre-packaged danishes, some slices of bread, and coffee.  The "dining" area had chairs stacked on each other, no real place to sit. Naturally we skipped this offering both days.  Coming back from a long hot day at the renfaire we were surprised to come into a hot room, A/C wasn't working.  Called the front desk &amp; was told someone would be right there.   A few minutes later the A/C started working, and no it wasn't from someone coming to the room.   I called the front desk and before I could tell him the A/C was working he asked if it had come on.  Guess A/C on or off is controlled from the reception area.  And to save $$ they shut it off when they believe no one is in the room, even if it is a booked room.  If the Wyndham/Super 8 chain can remove a business from there rolls I would recommend that this place be removed, it left a terrible impression of both the hotel &amp; the affiliated chain.More</t>
   </si>
   <si>
-    <t>Robert M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r479818777-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r479818777-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>479818777</t>
@@ -228,10 +279,37 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>B5977QCjuans</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r454736390-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r472761657-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>472761657</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>"Not a good hotel as it appear on the web site"</t>
+  </si>
+  <si>
+    <t>I stayed there for a night and I don't think i will be back again, the price online was 64 when i arrive it was $110 the guy said it was because it was a weekend, i expected a good room but when i got in, the carpet was dirty and tv did not work i had to go to the front desk to tell them to turn on the a/c, it is not a quiet place the is noise all night and i really didn't feel safe there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r469221935-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>469221935</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r454736390-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>454736390</t>
@@ -249,13 +327,7 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Angela P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r452311969-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r452311969-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>452311969</t>
@@ -264,10 +336,7 @@
     <t>01/16/2017</t>
   </si>
   <si>
-    <t>Y9259JYchrisa</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r437519557-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r437519557-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>437519557</t>
@@ -279,13 +348,40 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>SoCalRoadMan</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r428297257-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r437058402-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>437058402</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>ok for the price</t>
+  </si>
+  <si>
+    <t>the toilet did work good. there was people hang around out side make loud noise. the room was hot. I had to call the desk about it. they controller the ac for the front office. SMH.The bed was hard in the pillow was folded up to try to make them bigger</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r428831658-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>428831658</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>There is black mold in the bathroom. I killed 6 roaches in the bathroom before giving up and sleeping in my truck for the rest of the night. The pool was closed but smelled of bleach as you walk past it. The grounds were unkeep and dirty. The staff was always friendly and helpful. There is a nice restaurant next door and with in walking distance to lots of fast food places. The beds were large and the tv worked.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r428297257-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>428297257</t>
@@ -300,13 +396,7 @@
     <t>horrifically bad experience, toilets did not work, shower was broken, AC unit was louder than that jets overhead.  indifferent attitude from the hotel staff , i called and said the toilet was broken and they replied "what do you want me to do about it?"  unbelievably bad service.  place smelled and was dirty.  AVOID AT ALL COSTS</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>trebor_skraps</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r414058610-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r414058610-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>414058610</t>
@@ -324,10 +414,7 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Dale7137</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r391799071-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r391799071-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>391799071</t>
@@ -345,10 +432,46 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Jon R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r352848186-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r391195706-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>391195706</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Only stayed because we were on a budget for this trip</t>
+  </si>
+  <si>
+    <t>Despite the bad reviews on here and other sites, we decided to stay here anyway since we were just needing a place to sleep for 2 nights and able to use our Windham points on the room.  The rooms was fairly clean.  There was some mildew above the shower stall on the ceiling.  I had read on another review something about the AC being shut off.  Now I know what they mean.  We checked in extremely late on Friday night and at 10 am our AC shut off.  We kept thinking that it would come back on and never did.  We finally called the office and asked for someone to come and check the AC because it was not working at all.  The office quickly called back asking if we were staying another night.  My husband told them yes, especially since it was already paid for.  About 60 seconds later the AC unit came back on.  We immediately knew that they had a master switch in the office.  We told them that was BS since checkout is not until 11 and they should not be cutting the units off until people check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite the bad reviews on here and other sites, we decided to stay here anyway since we were just needing a place to sleep for 2 nights and able to use our Windham points on the room.  The rooms was fairly clean.  There was some mildew above the shower stall on the ceiling.  I had read on another review something about the AC being shut off.  Now I know what they mean.  We checked in extremely late on Friday night and at 10 am our AC shut off.  We kept thinking that it would come back on and never did.  We finally called the office and asked for someone to come and check the AC because it was not working at all.  The office quickly called back asking if we were staying another night.  My husband told them yes, especially since it was already paid for.  About 60 seconds later the AC unit came back on.  We immediately knew that they had a master switch in the office.  We told them that was BS since checkout is not until 11 and they should not be cutting the units off until people check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r354492564-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>354492564</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Frauders!!</t>
+  </si>
+  <si>
+    <t>I book a room with these guys under a family discount, room $126 for 3days. Get here owner overcharged me$16.. He said that was taxes. But taxes where included,in the booking. Come to find out,he took my reservations and cancelled it, rebooked my reservations, so that I couldn't get the discounted prices. I was told to call the 800#Cooperate because of the overcharge. And this is where I learned, I had a new confirmation number and a cancellation number... I was so disturbed,about that. So I talk to my family member. And we filed a case against them for the overcharge, and frauding as well. When the owner found out he had a case, he called me cursing me out,not only one time 5 different calls! Telling me that I need to call the case people back or he was going to have to put us out. So , I kept my composure, because I did not want to go through all the hotel searching,and moving my personal things. So I kept it cool.Next morning he calls at7:30am. Waking me up telling me I need to call the case people and tell them to drop the case, I told him I'm not calling no one until I get in contact with my family member. He said I call u back at 12. I told him I had to go to work,and I am trying to sleep. He called me back...I book a room with these guys under a family discount, room $126 for 3days. Get here owner overcharged me$16.. He said that was taxes. But taxes where included,in the booking. Come to find out,he took my reservations and cancelled it, rebooked my reservations, so that I couldn't get the discounted prices. I was told to call the 800#Cooperate because of the overcharge. And this is where I learned, I had a new confirmation number and a cancellation number... I was so disturbed,about that. So I talk to my family member. And we filed a case against them for the overcharge, and frauding as well. When the owner found out he had a case, he called me cursing me out,not only one time 5 different calls! Telling me that I need to call the case people back or he was going to have to put us out. So , I kept my composure, because I did not want to go through all the hotel searching,and moving my personal things. So I kept it cool.Next morning he calls at7:30am. Waking me up telling me I need to call the case people and tell them to drop the case, I told him I'm not calling no one until I get in contact with my family member. He said I call u back at 12. I told him I had to go to work,and I am trying to sleep. He called me back later, in said the case was dropped, and me to tell my family member, to stay out his business, and if they want to F with him,he gone F with them. So I told my family member. He took care of that. But the guy tends to call back while I was gone,  and my little brother, was there in answer the phone. The owner told my brother that he got headaches about the calls that was received on him about, what he did!! It's Fraud and it's wrong. Getting over treating customers very file! No exceptions! I started to call the police,and file harassment charges against him, for the harassment.. Because it was that much harassment done!! No Room Service the hold 3days here! And No Airconditioning! I saw a rodent in the tub, I do not ever recommend this place, ever to no one! Seriously! I've been traveling and staying in Super8 , but this one is the most trifling ,unprofessional people and place I've ever seen..  O, in by the way.......I Am A Proud Wyndham CustomerMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I book a room with these guys under a family discount, room $126 for 3days. Get here owner overcharged me$16.. He said that was taxes. But taxes where included,in the booking. Come to find out,he took my reservations and cancelled it, rebooked my reservations, so that I couldn't get the discounted prices. I was told to call the 800#Cooperate because of the overcharge. And this is where I learned, I had a new confirmation number and a cancellation number... I was so disturbed,about that. So I talk to my family member. And we filed a case against them for the overcharge, and frauding as well. When the owner found out he had a case, he called me cursing me out,not only one time 5 different calls! Telling me that I need to call the case people back or he was going to have to put us out. So , I kept my composure, because I did not want to go through all the hotel searching,and moving my personal things. So I kept it cool.Next morning he calls at7:30am. Waking me up telling me I need to call the case people and tell them to drop the case, I told him I'm not calling no one until I get in contact with my family member. He said I call u back at 12. I told him I had to go to work,and I am trying to sleep. He called me back...I book a room with these guys under a family discount, room $126 for 3days. Get here owner overcharged me$16.. He said that was taxes. But taxes where included,in the booking. Come to find out,he took my reservations and cancelled it, rebooked my reservations, so that I couldn't get the discounted prices. I was told to call the 800#Cooperate because of the overcharge. And this is where I learned, I had a new confirmation number and a cancellation number... I was so disturbed,about that. So I talk to my family member. And we filed a case against them for the overcharge, and frauding as well. When the owner found out he had a case, he called me cursing me out,not only one time 5 different calls! Telling me that I need to call the case people back or he was going to have to put us out. So , I kept my composure, because I did not want to go through all the hotel searching,and moving my personal things. So I kept it cool.Next morning he calls at7:30am. Waking me up telling me I need to call the case people and tell them to drop the case, I told him I'm not calling no one until I get in contact with my family member. He said I call u back at 12. I told him I had to go to work,and I am trying to sleep. He called me back later, in said the case was dropped, and me to tell my family member, to stay out his business, and if they want to F with him,he gone F with them. So I told my family member. He took care of that. But the guy tends to call back while I was gone,  and my little brother, was there in answer the phone. The owner told my brother that he got headaches about the calls that was received on him about, what he did!! It's Fraud and it's wrong. Getting over treating customers very file! No exceptions! I started to call the police,and file harassment charges against him, for the harassment.. Because it was that much harassment done!! No Room Service the hold 3days here! And No Airconditioning! I saw a rodent in the tub, I do not ever recommend this place, ever to no one! Seriously! I've been traveling and staying in Super8 , but this one is the most trifling ,unprofessional people and place I've ever seen..  O, in by the way.......I Am A Proud Wyndham CustomerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r352848186-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>352848186</t>
@@ -369,10 +492,7 @@
     <t>First , the room had a bad odor.. yes it was a smoking room, but it had that "air freshener" to mask the poop smell.  3 out of 4 pillows not only had stains, but had sticky substance on them. A comforter , we could tell had not even been changed because it had "sticky white" substance on it in several spots, along with a cut up straw. I could not get ahold of the manager, and had to contact Wyndham's 800 # just to get the manager who lived at the hotel to do anything about it. The breakfast was horrible, snack cakes and stale cereal, no juice, no coffee when I went at 8 am either. Each time I went to the office I was starred at as if I was in the wrong place.  My son and I were there for sports, and if  I could have found another hotel with an opening and could have got my money back, we would have left before unpacking! Will never stay here again! More</t>
   </si>
   <si>
-    <t>sing4Jesus</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r341196599-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r341196599-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>341196599</t>
@@ -390,10 +510,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>Lisa M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r325353292-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r325353292-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>325353292</t>
@@ -405,10 +522,37 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>128jille</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r316695488-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r317725536-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>317725536</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>ok motel for a short stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute, my previous hotel booking was cancelled by the travel agent so I booked this at 930pm in desperation for somewhere to sleep. the rooms are dated but reasonably clean. I stayed 3 nights, one day my room wasnt cleaned by housekeeping even though she saw me going out. located just off the highway, easy to get most places. every day my room key stopped working, I had to have it re coded about 6 times, one time the attendant wasnt listening and coded it for another room. I was a bit concerned that not once was my name confirmed when having the card recoded despite having met most of the staff members the first time when asking to have it re coded. I think I was the only person to use the pool, there were cigarette butts in it so I got out, it really needs maintaining with tiles missing in a number of spots.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute, my previous hotel booking was cancelled by the travel agent so I booked this at 930pm in desperation for somewhere to sleep. the rooms are dated but reasonably clean. I stayed 3 nights, one day my room wasnt cleaned by housekeeping even though she saw me going out. located just off the highway, easy to get most places. every day my room key stopped working, I had to have it re coded about 6 times, one time the attendant wasnt listening and coded it for another room. I was a bit concerned that not once was my name confirmed when having the card recoded despite having met most of the staff members the first time when asking to have it re coded. I think I was the only person to use the pool, there were cigarette butts in it so I got out, it really needs maintaining with tiles missing in a number of spots.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r316946421-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316946421</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r316695488-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>316695488</t>
@@ -423,13 +567,7 @@
     <t xml:space="preserve">Room had a strong mildew odor.  Waiting to great me was a cricket in my bed.  Sheets were itchy and overall didn't feel clean.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>kevincP6373HH</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r309662270-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r309662270-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>309662270</t>
@@ -444,13 +582,7 @@
     <t>Had to take a freezing shower. The AC malfunctioned and would only blow freezing cold air even when set to fan only and the temp set to hot. I did not sleep well because I woke up often turning it on and off.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>Christine F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r308544010-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r308544010-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>308544010</t>
@@ -459,10 +591,28 @@
     <t>09/09/2015</t>
   </si>
   <si>
-    <t>Krystal G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r267855452-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r306827284-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>306827284</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r304662893-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>304662893</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r267855452-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>267855452</t>
@@ -483,10 +633,7 @@
     <t>My husband and I needed a place to stay for the night passing through Dallas, TX. The staff would speak amongst themselves in their own language whenever we asked a question. When i asked how much a room was, the owners seemed to argue in their own language on how much to charge me. There was no sense of professionalism or care for the quality of their business.  The outside is not well maintained and the indoors are not much better either. First room that was given had broken A/C. We asked to be changed into another room and a member of the staff was helpful.  Understanding that this is a franchise, other Super 8's have not been so unkept and un maintained. I personally think $80 for one night in a hotel with wallpaper cracking from the walls and some kind of brown mold coming from it is not worth your money.More</t>
   </si>
   <si>
-    <t>Paul M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234796516-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234796516-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>234796516</t>
@@ -504,10 +651,7 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Melissa C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234006236-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r234006236-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>234006236</t>
@@ -516,19 +660,28 @@
     <t>10/12/2014</t>
   </si>
   <si>
-    <t>Bug in Tub. Wall paper had water stains</t>
-  </si>
-  <si>
-    <t>Ok, It was late. I needed to stop and super 8 is not an expensive hotel. I did not expect any frills but I did expect it to be clean and safe. Felt safe inspite of the peep holes having paper stuffed in them. bedding was clean , surfaces were clean, but found a bug in the tub. Killed it and went on. Wall paper showed signs in several places of water damage. Did see something that did not look normal. High up on the wall there was a switch plate cover, with a grate cut into it. Took the stand lamp and stacked it on top of a chair and put a garbage can on top of that to cover it up.MoreShow less</t>
-  </si>
-  <si>
-    <t>Ok, It was late. I needed to stop and super 8 is not an expensive hotel. I did not expect any frills but I did expect it to be clean and safe. Felt safe inspite of the peep holes having paper stuffed in them. bedding was clean , surfaces were clean, but found a bug in the tub. Killed it and went on. Wall paper showed signs in several places of water damage. Did see something that did not look normal. High up on the wall there was a switch plate cover, with a grate cut into it. Took the stand lamp and stacked it on top of a chair and put a garbage can on top of that to cover it up.More</t>
-  </si>
-  <si>
-    <t>A Wyndham traveler</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r215623443-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r233199644-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>233199644</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r216488105-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>216488105</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r215623443-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>215623443</t>
@@ -537,13 +690,7 @@
     <t>07/15/2014</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>PaulaCC0987</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r213924011-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r213924011-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>213924011</t>
@@ -564,10 +711,7 @@
     <t>The only good thing about this hotel was the AC and the bathroom.  The front end staff was rude when I requested a down stairs room, I walk with a cane, they gave me a handicap room.  The room had a musty un- ventilated smell.  The towels were small and not soft at all. The breakfast was basically non-existent and they didn't even have lids for the coffee. They say pet friendly but don't tell you you have to pay extra for a pet.  Maids only checked room once so we never had our room cleaned, we didn't leave till 2:30 in the afternoon. The bathroom was nice, looks like it has been remodeled recently and the AC was plenty cold.More</t>
   </si>
   <si>
-    <t>Richard S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r209817561-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r209817561-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>209817561</t>
@@ -585,10 +729,34 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Rasheedah J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r196702581-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r209645445-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>209645445</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Not Good!!!</t>
+  </si>
+  <si>
+    <t>I always stay at this hotel when I come to Dallas. The towels smell like smoke. The door was broke at the bottom, so I could see the outside. Never had this problem before.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r198670615-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198670615</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r196702581-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>196702581</t>
@@ -600,10 +768,7 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>JWeaverDale</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r189281169-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r189281169-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>189281169</t>
@@ -624,10 +789,7 @@
     <t>I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I...I ended up staying in this hotel overnight coming back from visiting family. I usually research where I stay, like many others, but I had a bad head cold and couldn't drive any longer.  It is in a good location right off the interstate and they allow dogs for a $10 fee, which is reasonable.  Hotel looks fine from the outside with many security cameras and the young man running the desk around 2 am was very courteous, explained the pet fee, and I paid it.  Room was reasonable and not bad.  Comforter was dirty with red stains from makeup on it, at least I hope that was what it was, and places where the wallpaper was falling down, they stapled it back to the wall (I believe they make a paste for that).  Shelves were hung crook, carpet was uneven, heater unit was dirty, and TV didn't work well, but the bed was comfortable and the room overall was clean.  I would not be reviewing this hotel if it had not been for the horrible customer service I encountered that morning.  First, I was woke up at 9 that morning by housekeeping, which is to be expected.  Scared my dog and she barked once.  About 5 minutes later, my phone rings and a lady starts screaming at me that I owe her $10 for my dog.  I told her I paid it and then she says, "you did?"  I said yes, then she said checkout is at 11 and hangs up after I tell her I know.  There was no good morning or goodbye in this conversation.  Did she think I needed a 2 hour wake up call?  After that I got up, got ready, and left.  When turning in the key the manager was on the phone and I tried to discuss what had happened, but he walked away.  Obviously his phone conversation was much more interesting than an upset customer.  The nice female desk clerk explained that was probably the manager's wife that was so disrespectful to me on the phone.  I drive this route at least 8 - 10 times a year and will NEVER stay here again even if I am deathly sick and I advise no one else to.  Trust this review that this hotel is in disarray, and they obviously do not care about their customers gauging from the horrible customer service I received from the manager's wife.  In this day and age, kindness and courteous go a long way and this hotel has a lot to learn.  There are many other hotels in this area that know how to treat their customers and want your business.More</t>
   </si>
   <si>
-    <t>Willie T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r181188719-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r181188719-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>181188719</t>
@@ -636,19 +798,40 @@
     <t>10/15/2013</t>
   </si>
   <si>
-    <t>Customer service was great, enjoyed the location of the...</t>
-  </si>
-  <si>
-    <t>Customer service was great, enjoyed the location of the hotel from the cotton bowl. Great local restaurants, and area was very quiet and safe.</t>
-  </si>
-  <si>
     <t>October 2013</t>
   </si>
   <si>
-    <t>John Dehart D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r165125733-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r180652065-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>180652065</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Please Read and Take Advice!!! We Wish we would have paid attention to Trip Advisor!!!</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot for his job. Therefore, we have stayed in hole-in-the-walls and nice places. This place seemed okay at first. My husband checked us into room 205. It seemed nice, but they do control the air. We have two dogs as well. Expedia advertises, and their website, that they allow two dogs. When my husband checked in he stated we had two dogs. the manager said we are only going to charge for one. I was thinking, this is actually working out. However, 5 minutes into being in our room I answered the phone with a hello, and I was responded to by a screaming Indian man, telling me I need to get all of our stuff out of the room right now because someone complained we had two dogs. A lady saw the dogs and freaked out, they don't bark or bother anyone. So, my husband went to speak with the manager. During this time, they turned off our air.  Then my husband said what can we do to figure this out, it is late and we have been traveling a while. We then had to pay additional 20 bucks for our second dog, that he told us he would only charge for one. They had to also move us to room 111. Which if you don't take this advice and stay there, I would definitely not stay in that room. AGain, I have...My husband and I travel a lot for his job. Therefore, we have stayed in hole-in-the-walls and nice places. This place seemed okay at first. My husband checked us into room 205. It seemed nice, but they do control the air. We have two dogs as well. Expedia advertises, and their website, that they allow two dogs. When my husband checked in he stated we had two dogs. the manager said we are only going to charge for one. I was thinking, this is actually working out. However, 5 minutes into being in our room I answered the phone with a hello, and I was responded to by a screaming Indian man, telling me I need to get all of our stuff out of the room right now because someone complained we had two dogs. A lady saw the dogs and freaked out, they don't bark or bother anyone. So, my husband went to speak with the manager. During this time, they turned off our air.  Then my husband said what can we do to figure this out, it is late and we have been traveling a while. We then had to pay additional 20 bucks for our second dog, that he told us he would only charge for one. They had to also move us to room 111. Which if you don't take this advice and stay there, I would definitely not stay in that room. AGain, I have stayed at some hole in the walls, but we killed a roach in the first 30 minutes, it was hot, the sheets weren't clean and the carpet had wet spots throughout.... The first room look luxurious compared to this one. Consequently, an hour later we checked out and cancelled our room through Expedia. Plus the management is rude and blatantly doesn't care about customer service. Nick was the desk attendant and as we were getting our refund someone had called asking if thy take dogs. He lied to them on the phone about the dogs. I have done my part to warn you, I wish I would have listened. I have used trip advisor numerous times, but you always try to give a place a chance...... DON'T DO IT!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot for his job. Therefore, we have stayed in hole-in-the-walls and nice places. This place seemed okay at first. My husband checked us into room 205. It seemed nice, but they do control the air. We have two dogs as well. Expedia advertises, and their website, that they allow two dogs. When my husband checked in he stated we had two dogs. the manager said we are only going to charge for one. I was thinking, this is actually working out. However, 5 minutes into being in our room I answered the phone with a hello, and I was responded to by a screaming Indian man, telling me I need to get all of our stuff out of the room right now because someone complained we had two dogs. A lady saw the dogs and freaked out, they don't bark or bother anyone. So, my husband went to speak with the manager. During this time, they turned off our air.  Then my husband said what can we do to figure this out, it is late and we have been traveling a while. We then had to pay additional 20 bucks for our second dog, that he told us he would only charge for one. They had to also move us to room 111. Which if you don't take this advice and stay there, I would definitely not stay in that room. AGain, I have...My husband and I travel a lot for his job. Therefore, we have stayed in hole-in-the-walls and nice places. This place seemed okay at first. My husband checked us into room 205. It seemed nice, but they do control the air. We have two dogs as well. Expedia advertises, and their website, that they allow two dogs. When my husband checked in he stated we had two dogs. the manager said we are only going to charge for one. I was thinking, this is actually working out. However, 5 minutes into being in our room I answered the phone with a hello, and I was responded to by a screaming Indian man, telling me I need to get all of our stuff out of the room right now because someone complained we had two dogs. A lady saw the dogs and freaked out, they don't bark or bother anyone. So, my husband went to speak with the manager. During this time, they turned off our air.  Then my husband said what can we do to figure this out, it is late and we have been traveling a while. We then had to pay additional 20 bucks for our second dog, that he told us he would only charge for one. They had to also move us to room 111. Which if you don't take this advice and stay there, I would definitely not stay in that room. AGain, I have stayed at some hole in the walls, but we killed a roach in the first 30 minutes, it was hot, the sheets weren't clean and the carpet had wet spots throughout.... The first room look luxurious compared to this one. Consequently, an hour later we checked out and cancelled our room through Expedia. Plus the management is rude and blatantly doesn't care about customer service. Nick was the desk attendant and as we were getting our refund someone had called asking if thy take dogs. He lied to them on the phone about the dogs. I have done my part to warn you, I wish I would have listened. I have used trip advisor numerous times, but you always try to give a place a chance...... DON'T DO IT!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r178655140-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>178655140</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r165125733-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>165125733</t>
@@ -660,10 +843,7 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Sonia J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r158682500-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r158682500-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>158682500</t>
@@ -675,10 +855,7 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Todd S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r157240013-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r157240013-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>157240013</t>
@@ -693,7 +870,31 @@
     <t xml:space="preserve">the beds are a lil firm. it is close to amenities. service is good. there is a lot of traffic going through the hotel thruway. they do have security. breakfast could be improved. wish that they had an excercise room. </t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r142429525-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r152807608-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152807608</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r148796690-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>148796690</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r142429525-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>142429525</t>
@@ -705,10 +906,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>BDHMC</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r136419308-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r136419308-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>136419308</t>
@@ -723,10 +921,7 @@
     <t>Holes in the walls, door handle fell off on the inside could not get the door open. Toliet wasn't working call the front desk to inform them, they told me to come get a plunger... And, hurry up and return it someone else may need to use it. Stay away from this hell hole!</t>
   </si>
   <si>
-    <t>dazzlermom</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r124318350-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r124318350-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>124318350</t>
@@ -744,10 +939,43 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>miche</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r16357006-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r123317525-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123317525</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>stay was pleasant</t>
+  </si>
+  <si>
+    <t>the staff was friendly the room was very cozy and nice the only thing was i had to call to get room service daily i stayed three days.  overall it was a pleasant stay i would stay again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r95011918-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>95011918</t>
+  </si>
+  <si>
+    <t>01/30/2011</t>
+  </si>
+  <si>
+    <t>Good for a night</t>
+  </si>
+  <si>
+    <t>My family was traveling from georgia to el paso &amp; we stopped here for the night.  The room (upstairs, non-smoking)  was clean and actually a lot nicer than any other super 8 I have stayed in.  The front desk employee was nice and there were no problems.  I didn't feel "unsafe" in the area, but then again we only stayed 1 night.  it wasn't expensive, 52$ with military discount.  But for that much in a super 8 I atleast expected a hot item for breakfast, which was the only downside, just cereal, some fruit &amp; muffins, etc.  We went down the street and had McD's. Overall it was a decent nights stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family was traveling from georgia to el paso &amp; we stopped here for the night.  The room (upstairs, non-smoking)  was clean and actually a lot nicer than any other super 8 I have stayed in.  The front desk employee was nice and there were no problems.  I didn't feel "unsafe" in the area, but then again we only stayed 1 night.  it wasn't expensive, 52$ with military discount.  But for that much in a super 8 I atleast expected a hot item for breakfast, which was the only downside, just cereal, some fruit &amp; muffins, etc.  We went down the street and had McD's. Overall it was a decent nights stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r16357006-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>16357006</t>
@@ -765,10 +993,7 @@
     <t>May 2008</t>
   </si>
   <si>
-    <t>ihatepushups</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r14199071-Super_8_Dallas_South-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109309-r14199071-Super_8_by_Wyndham_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
     <t>14199071</t>
@@ -1303,59 +1528,51 @@
       <c r="A2" t="n">
         <v>34017</v>
       </c>
-      <c r="B2" t="n">
-        <v>178573</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -1367,61 +1584,63 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34017</v>
       </c>
-      <c r="B3" t="n">
-        <v>15798</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>1</v>
@@ -1432,70 +1651,66 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34017</v>
       </c>
-      <c r="B4" t="n">
-        <v>7035</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1503,70 +1718,66 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34017</v>
       </c>
-      <c r="B5" t="n">
-        <v>178574</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1574,124 +1785,123 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34017</v>
       </c>
-      <c r="B6" t="n">
-        <v>33557</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34017</v>
       </c>
-      <c r="B7" t="n">
-        <v>178575</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1700,194 +1910,187 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34017</v>
       </c>
-      <c r="B8" t="n">
-        <v>178576</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34017</v>
       </c>
-      <c r="B9" t="n">
-        <v>178577</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>100</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34017</v>
       </c>
-      <c r="B10" t="n">
-        <v>178578</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1895,123 +2098,107 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34017</v>
       </c>
-      <c r="B11" t="n">
-        <v>31634</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>116</v>
-      </c>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34017</v>
       </c>
-      <c r="B12" t="n">
-        <v>178579</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s"/>
-      <c r="L12" t="s">
-        <v>121</v>
-      </c>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2020,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -2034,204 +2221,179 @@
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>123</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34017</v>
       </c>
-      <c r="B13" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34017</v>
       </c>
-      <c r="B14" t="n">
-        <v>178580</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34017</v>
       </c>
-      <c r="B15" t="n">
-        <v>178581</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2239,189 +2401,182 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34017</v>
       </c>
-      <c r="B16" t="n">
-        <v>27735</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34017</v>
       </c>
-      <c r="B17" t="n">
-        <v>178582</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34017</v>
       </c>
-      <c r="B18" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2433,123 +2588,107 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34017</v>
       </c>
-      <c r="B19" t="n">
-        <v>15342</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34017</v>
       </c>
-      <c r="B20" t="n">
-        <v>6509</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2573,70 +2712,64 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34017</v>
       </c>
-      <c r="B21" t="n">
-        <v>178583</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" t="s">
-        <v>178</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2644,64 +2777,58 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34017</v>
       </c>
-      <c r="B22" t="n">
-        <v>677</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" t="s">
-        <v>187</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
         <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2712,120 +2839,113 @@
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s">
-        <v>187</v>
-      </c>
+      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34017</v>
       </c>
-      <c r="B23" t="n">
-        <v>178584</v>
-      </c>
-      <c r="C23" t="s">
-        <v>189</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34017</v>
       </c>
-      <c r="B24" t="n">
-        <v>178585</v>
-      </c>
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" t="s">
-        <v>198</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2834,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -2846,70 +2966,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34017</v>
       </c>
-      <c r="B25" t="n">
-        <v>34946</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2917,59 +3033,59 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34017</v>
       </c>
-      <c r="B26" t="n">
-        <v>178586</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
@@ -2981,122 +3097,122 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34017</v>
       </c>
-      <c r="B27" t="n">
-        <v>100366</v>
-      </c>
-      <c r="C27" t="s">
-        <v>214</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34017</v>
       </c>
-      <c r="B28" t="n">
-        <v>14728</v>
-      </c>
-      <c r="C28" t="s">
-        <v>219</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" t="s">
-        <v>224</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3107,184 +3223,167 @@
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>224</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34017</v>
       </c>
-      <c r="B29" t="n">
-        <v>6509</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34017</v>
       </c>
-      <c r="B30" t="n">
-        <v>178587</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="N30" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34017</v>
       </c>
-      <c r="B31" t="n">
-        <v>178588</v>
-      </c>
-      <c r="C31" t="s">
-        <v>235</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3293,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -3308,135 +3407,123 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34017</v>
       </c>
-      <c r="B32" t="n">
-        <v>178589</v>
-      </c>
-      <c r="C32" t="s">
-        <v>242</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
-      </c>
-      <c r="K32" t="s">
-        <v>246</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
         <v>2</v>
       </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34017</v>
       </c>
-      <c r="B33" t="n">
-        <v>178590</v>
-      </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K33" t="s">
-        <v>253</v>
-      </c>
-      <c r="L33" t="s">
-        <v>254</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
       <c r="R33" t="n">
         <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3447,8 +3534,1463 @@
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s">
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" t="s">
+        <v>228</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>229</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>262</v>
+      </c>
+      <c r="J43" t="s">
+        <v>263</v>
+      </c>
+      <c r="K43" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>274</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>276</v>
+      </c>
+      <c r="J46" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>278</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" t="s">
+        <v>281</v>
+      </c>
+      <c r="K47" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>287</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>293</v>
+      </c>
+      <c r="J50" t="s">
+        <v>294</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>295</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" t="s">
+        <v>299</v>
+      </c>
+      <c r="L51" t="s">
+        <v>300</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K52" t="s">
+        <v>304</v>
+      </c>
+      <c r="L52" t="s">
+        <v>305</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>306</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" t="s">
+        <v>309</v>
+      </c>
+      <c r="K53" t="s">
+        <v>310</v>
+      </c>
+      <c r="L53" t="s">
+        <v>311</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>312</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>314</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" t="s">
+        <v>316</v>
+      </c>
+      <c r="L54" t="s">
+        <v>317</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>319</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>320</v>
+      </c>
+      <c r="J55" t="s">
+        <v>321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" t="s">
+        <v>323</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>324</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34017</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>326</v>
+      </c>
+      <c r="J56" t="s">
+        <v>327</v>
+      </c>
+      <c r="K56" t="s">
+        <v>328</v>
+      </c>
+      <c r="L56" t="s">
+        <v>329</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>330</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
